--- a/BalanceSheet/CMI_bal.xlsx
+++ b/BalanceSheet/CMI_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>96000000.0</v>
+        <v>3425000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>174000000.0</v>
+        <v>3470000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-53000000.0</v>
+        <v>3655000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-171000000.0</v>
+        <v>3579000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>353000000.0</v>
+        <v>3486000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>3821000000.0</v>
@@ -2000,19 +2000,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>179000000.0</v>
+        <v>2820000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>329000000.0</v>
+        <v>2597000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>-391000000.0</v>
+        <v>2281000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>171000000.0</v>
+        <v>2648000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-307000000.0</v>
+        <v>2534000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>2830000000.0</v>
@@ -3422,19 +3422,19 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>14000000.0</v>
+        <v>325000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>4000000.0</v>
+        <v>301000000.0</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>292000000.0</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>-11000000.0</v>
+        <v>292000000.0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>10000000.0</v>
+        <v>306000000.0</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
